--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100093.3267983241</v>
+        <v>18224550.14294365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100093.3267983241</v>
+        <v>18224550.14294365</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290419.7849864842</v>
+        <v>35135575.69943983</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290419.7849864842</v>
+        <v>35135575.69943983</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1412342610.081711</v>
+        <v>15981178.63753968</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17347.22603396704</v>
+        <v>451508.045985381</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33975.08853908804</v>
+        <v>755249.8223755471</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50461.04464185606</v>
+        <v>1058991.598765712</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66950.70106567338</v>
+        <v>1361860.332073336</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83447.14900083769</v>
+        <v>1665014.78857161</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99939.50092645361</v>
+        <v>1968169.245069883</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116433.9008568437</v>
+        <v>2271323.70156816</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132928.3007872338</v>
+        <v>2574478.158066432</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>149422.7007176239</v>
+        <v>2877632.614564703</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>165917.2816081375</v>
+        <v>3180787.07106313</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182411.5005784027</v>
+        <v>3483941.527561507</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198905.9005087919</v>
+        <v>3787095.984059888</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215400.4813993052</v>
+        <v>4090250.440558268</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232104.9772691996</v>
+        <v>4337742.292098649</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>248930.9967106594</v>
+        <v>4603204.057932803</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>51.00000000000426</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>51.00000000000524</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,22 +27141,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
